--- a/TestTeam/Traceability_Create Drug.xlsx
+++ b/TestTeam/Traceability_Create Drug.xlsx
@@ -14,102 +14,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+  <si>
+    <t>SYRS NUMBER</t>
+  </si>
   <si>
     <t>SYRSTO-ID</t>
   </si>
   <si>
-    <t>SYRS NUMBER</t>
+    <t>DATA DICTIONARY RULE ID</t>
   </si>
   <si>
     <t>TEST CASE NUMBER</t>
   </si>
   <si>
-    <t>DATA DICTIONARY RULE ID</t>
-  </si>
-  <si>
-    <t>PUMPS</t>
+    <t>892</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>EDRL_CharactersAllowed</t>
+  </si>
+  <si>
+    <t>Test Case 1: Happy Path</t>
+  </si>
+  <si>
+    <t>EDRL_DrugLibraryNameUnicity</t>
+  </si>
+  <si>
+    <t>EDRL_StringLength</t>
+  </si>
+  <si>
+    <t>ED_001</t>
   </si>
   <si>
     <t>1012</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>ED_002</t>
+  </si>
+  <si>
+    <t>ED_003</t>
+  </si>
+  <si>
+    <t>ED_004</t>
+  </si>
+  <si>
+    <t>ED_005</t>
+  </si>
+  <si>
+    <t>ED_006</t>
+  </si>
+  <si>
+    <t>ED_007</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
     <t>69</t>
   </si>
   <si>
-    <t>Test Case 1: Happy Path</t>
-  </si>
-  <si>
     <t>EDRL_RequiredParameter</t>
   </si>
   <si>
-    <t>ED_001</t>
-  </si>
-  <si>
-    <t>ED_002</t>
-  </si>
-  <si>
-    <t>ED_003</t>
-  </si>
-  <si>
-    <t>ED_004</t>
-  </si>
-  <si>
-    <t>892</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>EDRL_CharactersAllowed</t>
-  </si>
-  <si>
-    <t>EDRL_DrugLibraryNameUnicity</t>
-  </si>
-  <si>
-    <t>EDRL_StringLength</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>ED_005</t>
-  </si>
-  <si>
-    <t>ED_006</t>
-  </si>
-  <si>
-    <t>ED_007</t>
-  </si>
-  <si>
-    <t>68</t>
+    <t>Test Case 2: Exception E2</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>FF_001</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>75</t>
   </si>
   <si>
     <t>713</t>
   </si>
   <si>
     <t>76</t>
-  </si>
-  <si>
-    <t>Test Case 2: Exception E2</t>
-  </si>
-  <si>
-    <t>712</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>701</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>709</t>
-  </si>
-  <si>
-    <t>FF_001</t>
   </si>
 </sst>
 </file>
@@ -445,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +450,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,258 +463,255 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="D3" t="s">
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="D4" t="s">
+    <row r="5" spans="1:4">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="D5" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="C22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="D10" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="27" spans="1:4">
+      <c r="C27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="28" spans="1:4">
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="30" spans="1:4">
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="C32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="D26" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="C35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="D35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
+    <row r="36" spans="1:4">
       <c r="C36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
